--- a/memory.xlsx
+++ b/memory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Different\Electronics\SportIDuino\siduino\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Different\Electronics\SportIDuino\sportiduino_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A6606-954D-4BB0-9461-87FC83C00D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF0CFA-2E48-4FA6-9FB8-04CE93DED4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHIP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
   <si>
     <t>page</t>
   </si>
@@ -204,13 +204,16 @@
     <t>Мастер-чип очистки EEPROM</t>
   </si>
   <si>
-    <t>пароль 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пароль 4 </t>
-  </si>
-  <si>
     <t>пароль NFC</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x69</t>
+  </si>
+  <si>
+    <t>пароль nfc</t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -875,11 +878,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,7 +1479,7 @@
         <v>37</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2031,19 +2034,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B40:E43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B28:E31"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H28:K31"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H40:K43"/>
+    <mergeCell ref="H16:K19"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H4:K7"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A13:E13"/>
@@ -2054,16 +2054,19 @@
     <mergeCell ref="B4:E7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H4:K7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H40:K43"/>
-    <mergeCell ref="H16:K19"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B28:E31"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H28:K31"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B40:E43"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -2074,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2502,7 @@
         <v>859</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -2514,7 +2517,7 @@
         <v>860</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -2529,7 +2532,7 @@
         <v>861</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -2761,6 +2764,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B23:I23"/>
@@ -2777,22 +2796,6 @@
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3930,11 +3933,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B14:AG19"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B12:AG12"/>
-    <mergeCell ref="B1:AG1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B5:AG8"/>
     <mergeCell ref="B3:I3"/>
@@ -3945,6 +3943,11 @@
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="R2:Y2"/>
     <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="B14:AG19"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B12:AG12"/>
+    <mergeCell ref="B1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/memory.xlsx
+++ b/memory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Different\Electronics\SportIDuino\sportiduino_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF0CFA-2E48-4FA6-9FB8-04CE93DED4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742734C-092E-4149-9B60-8A8D399F70E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHIP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="71">
   <si>
     <t>page</t>
   </si>
@@ -42,9 +42,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>служебная память</t>
-  </si>
-  <si>
     <t>резерв</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>месяц</t>
   </si>
   <si>
-    <t>год (два знака)</t>
-  </si>
-  <si>
     <t>день</t>
   </si>
   <si>
@@ -150,12 +144,6 @@
     <t>130-135</t>
   </si>
   <si>
-    <t>x+1 - 129</t>
-  </si>
-  <si>
-    <t>8 - x</t>
-  </si>
-  <si>
     <t>усиление антенны</t>
   </si>
   <si>
@@ -198,22 +186,58 @@
     <t>Мастер-чип снятия полного дампа</t>
   </si>
   <si>
-    <t xml:space="preserve">номер чипа </t>
-  </si>
-  <si>
     <t>Мастер-чип очистки EEPROM</t>
   </si>
   <si>
-    <t>пароль NFC</t>
-  </si>
-  <si>
     <t>0x05</t>
   </si>
   <si>
     <t>0x69</t>
   </si>
   <si>
-    <t>пароль nfc</t>
+    <t>пароль NTAG 1</t>
+  </si>
+  <si>
+    <t>пароль NTAG 2</t>
+  </si>
+  <si>
+    <t>пароль NTAG 3</t>
+  </si>
+  <si>
+    <t>пароль NTAG 4</t>
+  </si>
+  <si>
+    <t>Мастер-чип задания пароля NTAG</t>
+  </si>
+  <si>
+    <t>год-2000</t>
+  </si>
+  <si>
+    <t>номер чипа начала</t>
+  </si>
+  <si>
+    <t>пароль4</t>
+  </si>
+  <si>
+    <t>8-129</t>
+  </si>
+  <si>
+    <t>AUTH</t>
+  </si>
+  <si>
+    <t>RFUI</t>
+  </si>
+  <si>
+    <t>Dynamic lock bytes</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>Access config bytes, default = 0</t>
   </si>
 </sst>
 </file>
@@ -357,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -421,6 +445,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,9 +826,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -807,18 +840,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -836,132 +869,189 @@
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="26">
+        <v>130</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>131</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>132</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>133</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>134</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:E13"/>
+  <mergeCells count="12">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B3:E6"/>
@@ -970,6 +1060,8 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -978,9 +1070,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -991,320 +1083,454 @@
     <col min="6" max="6" width="2.7109375" style="6" customWidth="1"/>
     <col min="7" max="10" width="9.5703125" style="6"/>
     <col min="11" max="11" width="11.7109375" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.5703125" style="6"/>
+    <col min="12" max="12" width="3.28515625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="G1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="G1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="M1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="27" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="M2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+    </row>
+    <row r="3" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="24">
         <v>3</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="G3" s="30"/>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="18">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
+        <v>1</v>
+      </c>
+      <c r="P3" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27" t="s">
+      <c r="Q3" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="G5" s="3">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="G6" s="3">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="G6" s="18">
         <v>2</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="M6" s="15">
+        <v>2</v>
+      </c>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+    </row>
+    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="G7" s="3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="G7" s="18">
         <v>3</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>250</v>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="M7" s="15">
+        <v>3</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>4</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>246</v>
       </c>
       <c r="D8" s="1">
         <v>255</v>
       </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>251</v>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>4</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>247</v>
       </c>
       <c r="J8" s="1">
         <v>255</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>4</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>248</v>
+      </c>
+      <c r="P8" s="1">
+        <v>255</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>5</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="18">
         <v>6</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>6</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="29"/>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>7</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>7</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="M13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="G13" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="G14" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="M14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1317,84 +1543,127 @@
       <c r="K15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>0</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="Q15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>0</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>1</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+    </row>
+    <row r="18" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>2</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>252</v>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>249</v>
       </c>
       <c r="D20" s="1">
         <v>255</v>
@@ -1409,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J20" s="1">
         <v>255</v>
@@ -1417,244 +1686,363 @@
       <c r="K20" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="M20" s="3">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>251</v>
+      </c>
+      <c r="P20" s="1">
+        <v>255</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="E21" s="12">
         <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="M21" s="3">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>6</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+        <v>13</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>7</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
         <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>7</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
+      <c r="H23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="G25" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="27" t="s">
+      <c r="M23" s="3">
+        <v>7</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="G25" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="M25" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+    </row>
+    <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="G26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="27" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="M26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="10">
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="27" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="G27" s="30"/>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
         <v>1</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <v>2</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>0</v>
-      </c>
-      <c r="B28" s="27" t="s">
+      <c r="M27" s="30"/>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
         <v>2</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27" t="s">
+      <c r="Q27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>0</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="G29" s="12">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="G29" s="10">
         <v>1</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+    </row>
+    <row r="30" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="G30" s="12">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="G30" s="10">
         <v>2</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="M30" s="3">
+        <v>2</v>
+      </c>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+    </row>
+    <row r="31" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>3</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="G31" s="12">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="G31" s="10">
         <v>3</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>4</v>
-      </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
-      <c r="C32" s="10">
-        <v>253</v>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="M31" s="3">
+        <v>3</v>
+      </c>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+    </row>
+    <row r="32" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>252</v>
       </c>
       <c r="D32" s="1">
         <v>255</v>
@@ -1662,14 +2050,14 @@
       <c r="E32" s="12">
         <v>0</v>
       </c>
-      <c r="G32" s="12">
-        <v>4</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
-        <v>249</v>
+      <c r="G32" s="10">
+        <v>4</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>253</v>
       </c>
       <c r="J32" s="1">
         <v>255</v>
@@ -1677,396 +2065,202 @@
       <c r="K32" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="M32" s="3">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>254</v>
+      </c>
+      <c r="P32" s="1">
+        <v>255</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
         <v>5</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="J33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>6</v>
       </c>
-      <c r="B34" s="10">
-        <v>0</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
         <v>6</v>
       </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34" s="12">
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>7</v>
       </c>
-      <c r="B35" s="10">
-        <v>0</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
         <v>7</v>
       </c>
-      <c r="H35" s="12">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0</v>
-      </c>
-      <c r="K35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="G37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-    </row>
-    <row r="38" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="G38" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-    </row>
-    <row r="39" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="15">
-        <v>0</v>
-      </c>
-      <c r="C39" s="15">
-        <v>1</v>
-      </c>
-      <c r="D39" s="15">
-        <v>2</v>
-      </c>
-      <c r="E39" s="15">
-        <v>3</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="18">
-        <v>0</v>
-      </c>
-      <c r="I39" s="18">
-        <v>1</v>
-      </c>
-      <c r="J39" s="18">
-        <v>2</v>
-      </c>
-      <c r="K39" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>0</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="G40" s="18">
-        <v>0</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-    </row>
-    <row r="41" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>1</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="G41" s="18">
-        <v>1</v>
-      </c>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-    </row>
-    <row r="42" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>2</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="G42" s="18">
-        <v>2</v>
-      </c>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-    </row>
-    <row r="43" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>3</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="G43" s="18">
-        <v>3</v>
-      </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-    </row>
-    <row r="44" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>4</v>
-      </c>
-      <c r="B44" s="15">
-        <v>0</v>
-      </c>
-      <c r="C44" s="15">
-        <v>248</v>
-      </c>
-      <c r="D44" s="1">
-        <v>255</v>
-      </c>
-      <c r="E44" s="15">
-        <v>0</v>
-      </c>
-      <c r="G44" s="18">
-        <v>4</v>
-      </c>
-      <c r="H44" s="18">
-        <v>0</v>
-      </c>
-      <c r="I44" s="18">
-        <v>247</v>
-      </c>
-      <c r="J44" s="1">
-        <v>255</v>
-      </c>
-      <c r="K44" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>5</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="18">
-        <v>5</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>6</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="15">
-        <v>0</v>
-      </c>
-      <c r="E46" s="15">
-        <v>0</v>
-      </c>
-      <c r="G46" s="18">
-        <v>6</v>
-      </c>
-      <c r="H46" s="18">
-        <v>0</v>
-      </c>
-      <c r="I46" s="18">
-        <v>0</v>
-      </c>
-      <c r="J46" s="18">
-        <v>0</v>
-      </c>
-      <c r="K46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>7</v>
       </c>
-      <c r="B47" s="15">
-        <v>0</v>
-      </c>
-      <c r="C47" s="15">
-        <v>0</v>
-      </c>
-      <c r="D47" s="15">
-        <v>0</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18">
-        <v>7</v>
-      </c>
-      <c r="H47" s="18">
-        <v>0</v>
-      </c>
-      <c r="I47" s="18">
-        <v>0</v>
-      </c>
-      <c r="J47" s="18">
-        <v>0</v>
-      </c>
-      <c r="K47" s="18">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H40:K43"/>
+  <mergeCells count="37">
+    <mergeCell ref="B28:E31"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N16:Q19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N28:Q31"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H16:K19"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H4:K7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:E7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B28:E31"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H28:K31"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B40:E43"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E7"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N4:Q7"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H4:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -2075,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,22 +2282,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="9">
         <v>0</v>
       </c>
@@ -2220,16 +2414,16 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -2293,61 +2487,61 @@
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="B9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>800</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>801</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="B11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>802</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2366,404 +2560,552 @@
       <c r="A14" s="9">
         <v>850</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="B14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>851</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="B15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>852</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>853</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="B17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>854</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="B18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>855</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="B19" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>856</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="B20" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>857</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="B21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>858</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="B22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>859</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>860</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="A24" s="14">
+        <v>870</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>861</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="A25" s="14">
+        <v>871</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="A26" s="14">
+        <v>872</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
-        <v>870</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>871</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+        <v>880</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>872</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+        <v>881</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="A30" s="14">
+        <v>882</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>880</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="A31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>881</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="A32" s="9">
+        <v>900</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>882</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="A33" s="9">
+        <v>901</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="A34" s="9">
+        <v>902</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>900</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>900</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="A36" s="25">
+        <v>950</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>900</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="A37" s="25">
+        <v>950</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="A38" s="25">
+        <v>950</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="25">
+        <v>950</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>950</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>950</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>950</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>950</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>950</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <v>950</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <v>950</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>950</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
         <v>1023</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B49" s="9">
         <v>255</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C49" s="9">
         <v>255</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D49" s="9">
         <v>255</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E49" s="9">
         <v>255</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F49" s="9">
         <v>255</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G49" s="9">
         <v>255</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H49" s="9">
         <v>255</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I49" s="9">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:I6"/>
@@ -2780,22 +3122,32 @@
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2815,104 +3167,104 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>48</v>
+      <c r="B2" s="34" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>46</v>
+      <c r="B6" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>15996</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>47</v>
+      <c r="B11" s="30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>15997</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="30"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>15998</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>15999</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +3272,7 @@
         <v>32767</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2953,132 +3305,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="34">
-        <v>0</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <v>1</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37">
         <v>2</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34">
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37">
         <v>3</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="7">
         <v>7</v>
       </c>
@@ -3180,192 +3532,192 @@
       <c r="A5" s="7">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
-        <v>0</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
+      <c r="B9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37">
+        <v>0</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -3573,40 +3925,40 @@
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="B12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -3713,223 +4065,223 @@
       <c r="A14" s="7">
         <v>130</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>131</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>132</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>133</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>134</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>135</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3969,18 +4321,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="16">
         <v>0</v>
       </c>
@@ -3998,51 +4350,51 @@
       <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="37"/>
       <c r="E7" s="7">
         <v>0</v>
       </c>
@@ -4051,56 +4403,56 @@
       <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>129</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+        <v>38</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
